--- a/titleguard_evaluation_dataset.xlsx
+++ b/titleguard_evaluation_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patil\OneDrive\Desktop\major-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AC8102-9A20-440E-9387-7A467FF39714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D50004-1080-4F61-A839-0CEA3E0C43D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>Query_Title</t>
   </si>
@@ -202,13 +202,19 @@
     <t>Threshold</t>
   </si>
   <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Levenshtein</t>
+    <t>Predicted_Phonetic</t>
+  </si>
+  <si>
+    <t>Predicted_Lexical</t>
+  </si>
+  <si>
+    <t>Predicted_Semantic</t>
+  </si>
+  <si>
+    <t>Predicted_Hybrid</t>
+  </si>
+  <si>
+    <t>Predicted_Levenshteinut</t>
   </si>
 </sst>
 </file>
@@ -548,22 +554,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5546875" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,13 +587,22 @@
         <v>59</v>
       </c>
       <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -596,11 +615,23 @@
       <c r="D2">
         <v>0.75</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -613,11 +644,23 @@
       <c r="D3">
         <v>0.75</v>
       </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -630,11 +673,23 @@
       <c r="D4">
         <v>0.75</v>
       </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -647,11 +702,23 @@
       <c r="D5">
         <v>0.75</v>
       </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -664,11 +731,23 @@
       <c r="D6">
         <v>0.75</v>
       </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -681,11 +760,23 @@
       <c r="D7">
         <v>0.75</v>
       </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -698,11 +789,23 @@
       <c r="D8">
         <v>0.75</v>
       </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -715,11 +818,23 @@
       <c r="D9">
         <v>0.75</v>
       </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -732,11 +847,23 @@
       <c r="D10">
         <v>0.75</v>
       </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -749,11 +876,23 @@
       <c r="D11">
         <v>0.75</v>
       </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -766,11 +905,23 @@
       <c r="D12">
         <v>0.75</v>
       </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -783,11 +934,23 @@
       <c r="D13">
         <v>0.75</v>
       </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -800,11 +963,23 @@
       <c r="D14">
         <v>0.75</v>
       </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -817,11 +992,23 @@
       <c r="D15">
         <v>0.75</v>
       </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -834,11 +1021,23 @@
       <c r="D16">
         <v>0.75</v>
       </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -851,11 +1050,23 @@
       <c r="D17">
         <v>0.75</v>
       </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -868,11 +1079,23 @@
       <c r="D18">
         <v>0.75</v>
       </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -885,11 +1108,23 @@
       <c r="D19">
         <v>0.75</v>
       </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -902,11 +1137,23 @@
       <c r="D20">
         <v>0.75</v>
       </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -919,11 +1166,23 @@
       <c r="D21">
         <v>0.75</v>
       </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -936,11 +1195,23 @@
       <c r="D22">
         <v>0.75</v>
       </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -953,11 +1224,23 @@
       <c r="D23">
         <v>0.75</v>
       </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -970,11 +1253,23 @@
       <c r="D24">
         <v>0.75</v>
       </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -987,11 +1282,23 @@
       <c r="D25">
         <v>0.75</v>
       </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1004,11 +1311,23 @@
       <c r="D26">
         <v>0.75</v>
       </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1021,11 +1340,23 @@
       <c r="D27">
         <v>0.75</v>
       </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1038,11 +1369,23 @@
       <c r="D28">
         <v>0.75</v>
       </c>
-      <c r="E28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1055,11 +1398,23 @@
       <c r="D29">
         <v>0.75</v>
       </c>
-      <c r="E29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1072,11 +1427,23 @@
       <c r="D30">
         <v>0.75</v>
       </c>
-      <c r="E30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1089,11 +1456,23 @@
       <c r="D31">
         <v>0.75</v>
       </c>
-      <c r="E31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1106,11 +1485,23 @@
       <c r="D32">
         <v>0.75</v>
       </c>
-      <c r="E32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1123,11 +1514,23 @@
       <c r="D33">
         <v>0.75</v>
       </c>
-      <c r="E33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1140,11 +1543,23 @@
       <c r="D34">
         <v>0.75</v>
       </c>
-      <c r="E34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1157,11 +1572,23 @@
       <c r="D35">
         <v>0.75</v>
       </c>
-      <c r="E35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1174,11 +1601,23 @@
       <c r="D36">
         <v>0.75</v>
       </c>
-      <c r="E36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1191,11 +1630,23 @@
       <c r="D37">
         <v>0.75</v>
       </c>
-      <c r="E37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1208,11 +1659,23 @@
       <c r="D38">
         <v>0.75</v>
       </c>
-      <c r="E38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1225,11 +1688,23 @@
       <c r="D39">
         <v>0.75</v>
       </c>
-      <c r="E39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1242,11 +1717,23 @@
       <c r="D40">
         <v>0.75</v>
       </c>
-      <c r="E40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1259,11 +1746,23 @@
       <c r="D41">
         <v>0.75</v>
       </c>
-      <c r="E41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1276,11 +1775,23 @@
       <c r="D42">
         <v>0.75</v>
       </c>
-      <c r="E42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1293,11 +1804,23 @@
       <c r="D43">
         <v>0.75</v>
       </c>
-      <c r="E43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1310,11 +1833,23 @@
       <c r="D44">
         <v>0.75</v>
       </c>
-      <c r="E44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1327,11 +1862,23 @@
       <c r="D45">
         <v>0.75</v>
       </c>
-      <c r="E45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1344,11 +1891,23 @@
       <c r="D46">
         <v>0.75</v>
       </c>
-      <c r="E46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1361,11 +1920,23 @@
       <c r="D47">
         <v>0.75</v>
       </c>
-      <c r="E47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1378,11 +1949,23 @@
       <c r="D48">
         <v>0.75</v>
       </c>
-      <c r="E48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1395,11 +1978,23 @@
       <c r="D49">
         <v>0.75</v>
       </c>
-      <c r="E49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -1412,11 +2007,23 @@
       <c r="D50">
         <v>0.75</v>
       </c>
-      <c r="E50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -1429,11 +2036,24 @@
       <c r="D51">
         <v>0.75</v>
       </c>
-      <c r="E51" t="s">
-        <v>62</v>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>